--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Bsg-Slc16a7.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Bsg-Slc16a7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,7 +534,7 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>46.1776315</v>
+        <v>52.7698305</v>
       </c>
       <c r="H2">
-        <v>92.35526300000001</v>
+        <v>105.539661</v>
       </c>
       <c r="I2">
-        <v>0.1487490918292909</v>
+        <v>0.1637070887270887</v>
       </c>
       <c r="J2">
-        <v>0.1101549568283373</v>
+        <v>0.1227111696170847</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>1.301920666666667</v>
+        <v>0.18497</v>
       </c>
       <c r="N2">
-        <v>3.905762</v>
+        <v>0.36994</v>
       </c>
       <c r="O2">
-        <v>0.03359020411433435</v>
+        <v>0.006936904459232851</v>
       </c>
       <c r="P2">
-        <v>0.03405758655206657</v>
+        <v>0.004756306409862805</v>
       </c>
       <c r="Q2">
-        <v>60.11961278756766</v>
+        <v>9.760835547585</v>
       </c>
       <c r="R2">
-        <v>360.717676725406</v>
+        <v>39.04334219034</v>
       </c>
       <c r="S2">
-        <v>0.004996512356367746</v>
+        <v>0.00113562043379897</v>
       </c>
       <c r="T2">
-        <v>0.003751611976320254</v>
+        <v>0.0005836519226115018</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,7 +596,7 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>46.1776315</v>
+        <v>52.7698305</v>
       </c>
       <c r="H3">
-        <v>92.35526300000001</v>
+        <v>105.539661</v>
       </c>
       <c r="I3">
-        <v>0.1487490918292909</v>
+        <v>0.1637070887270887</v>
       </c>
       <c r="J3">
-        <v>0.1101549568283373</v>
+        <v>0.1227111696170847</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>16.81990266666667</v>
+        <v>1.301920666666667</v>
       </c>
       <c r="N3">
-        <v>50.459708</v>
+        <v>3.905762</v>
       </c>
       <c r="O3">
-        <v>0.4339618981570587</v>
+        <v>0.04882575162549281</v>
       </c>
       <c r="P3">
-        <v>0.4400001517250682</v>
+        <v>0.05021625354381405</v>
       </c>
       <c r="Q3">
-        <v>776.7032672072007</v>
+        <v>68.70213290444698</v>
       </c>
       <c r="R3">
-        <v>4660.219603243204</v>
+        <v>412.212797426682</v>
       </c>
       <c r="S3">
-        <v>0.06455143823937773</v>
+        <v>0.007993121653521349</v>
       </c>
       <c r="T3">
-        <v>0.04846819771773675</v>
+        <v>0.006162095206149496</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>46.1776315</v>
+        <v>52.7698305</v>
       </c>
       <c r="H4">
-        <v>92.35526300000001</v>
+        <v>105.539661</v>
       </c>
       <c r="I4">
-        <v>0.1487490918292909</v>
+        <v>0.1637070887270887</v>
       </c>
       <c r="J4">
-        <v>0.1101549568283373</v>
+        <v>0.1227111696170847</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.5957015</v>
+        <v>10.861814</v>
       </c>
       <c r="N4">
-        <v>3.191403</v>
+        <v>32.585442</v>
       </c>
       <c r="O4">
-        <v>0.04116989649437126</v>
+        <v>0.4073491159212727</v>
       </c>
       <c r="P4">
-        <v>0.02782849643552907</v>
+        <v>0.4189499558112469</v>
       </c>
       <c r="Q4">
-        <v>73.68571585099725</v>
+        <v>573.176083702527</v>
       </c>
       <c r="R4">
-        <v>294.742863403989</v>
+        <v>3439.056502215162</v>
       </c>
       <c r="S4">
-        <v>0.006123984714243634</v>
+        <v>0.06668593786302494</v>
       </c>
       <c r="T4">
-        <v>0.003065446823453243</v>
+        <v>0.05140983908862406</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>46.1776315</v>
+        <v>52.7698305</v>
       </c>
       <c r="H5">
-        <v>92.35526300000001</v>
+        <v>105.539661</v>
       </c>
       <c r="I5">
-        <v>0.1487490918292909</v>
+        <v>0.1637070887270887</v>
       </c>
       <c r="J5">
-        <v>0.1101549568283373</v>
+        <v>0.1227111696170847</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1332063333333333</v>
+        <v>2.030083</v>
       </c>
       <c r="N5">
-        <v>0.399619</v>
+        <v>4.060166000000001</v>
       </c>
       <c r="O5">
-        <v>0.00343678999846027</v>
+        <v>0.07613392342170518</v>
       </c>
       <c r="P5">
-        <v>0.003484610347571176</v>
+        <v>0.05220142069229343</v>
       </c>
       <c r="Q5">
-        <v>6.151152974132835</v>
+        <v>107.1271358109315</v>
       </c>
       <c r="R5">
-        <v>36.906917844797</v>
+        <v>428.508543243726</v>
       </c>
       <c r="S5">
-        <v>0.0005112193910789554</v>
+        <v>0.01246366295673847</v>
       </c>
       <c r="T5">
-        <v>0.0003838471024002803</v>
+        <v>0.006405697388824813</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>46.1776315</v>
+        <v>52.7698305</v>
       </c>
       <c r="H6">
-        <v>92.35526300000001</v>
+        <v>105.539661</v>
       </c>
       <c r="I6">
-        <v>0.1487490918292909</v>
+        <v>0.1637070887270887</v>
       </c>
       <c r="J6">
-        <v>0.1101549568283373</v>
+        <v>0.1227111696170847</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,33 +809,33 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>18.90820766666667</v>
+        <v>3.524424</v>
       </c>
       <c r="N6">
-        <v>56.724623</v>
+        <v>10.573272</v>
       </c>
       <c r="O6">
-        <v>0.4878412112357755</v>
+        <v>0.1321759883323095</v>
       </c>
       <c r="P6">
-        <v>0.4946291549397649</v>
+        <v>0.1359402102687542</v>
       </c>
       <c r="Q6">
-        <v>873.1362459568082</v>
+        <v>185.983257090132</v>
       </c>
       <c r="R6">
-        <v>5238.81747574085</v>
+        <v>1115.899542540792</v>
       </c>
       <c r="S6">
-        <v>0.07256593712822289</v>
+        <v>0.02163814624950803</v>
       </c>
       <c r="T6">
-        <v>0.05448585320842676</v>
+        <v>0.01668138220007125</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,25 +844,25 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>75.43649166666665</v>
+        <v>52.7698305</v>
       </c>
       <c r="H7">
-        <v>226.309475</v>
+        <v>105.539661</v>
       </c>
       <c r="I7">
-        <v>0.2429988126654902</v>
+        <v>0.1637070887270887</v>
       </c>
       <c r="J7">
-        <v>0.2699262569201787</v>
+        <v>0.1227111696170847</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.301920666666667</v>
+        <v>8.761419666666667</v>
       </c>
       <c r="N7">
-        <v>3.905762</v>
+        <v>26.284259</v>
       </c>
       <c r="O7">
-        <v>0.03359020411433435</v>
+        <v>0.328578316239987</v>
       </c>
       <c r="P7">
-        <v>0.03405758655206657</v>
+        <v>0.3379358532740286</v>
       </c>
       <c r="Q7">
-        <v>98.21232752166108</v>
+        <v>462.3386307493665</v>
       </c>
       <c r="R7">
-        <v>883.9109476949498</v>
+        <v>2774.031784496199</v>
       </c>
       <c r="S7">
-        <v>0.00816237971697471</v>
+        <v>0.05379059957049697</v>
       </c>
       <c r="T7">
-        <v>0.009193036857734344</v>
+        <v>0.04146850381080357</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,46 +915,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>75.43649166666665</v>
+        <v>75.43649166666667</v>
       </c>
       <c r="H8">
         <v>226.309475</v>
       </c>
       <c r="I8">
-        <v>0.2429988126654902</v>
+        <v>0.2340255467474979</v>
       </c>
       <c r="J8">
-        <v>0.2699262569201787</v>
+        <v>0.2631304678217451</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M8">
-        <v>16.81990266666667</v>
+        <v>0.18497</v>
       </c>
       <c r="N8">
-        <v>50.459708</v>
+        <v>0.36994</v>
       </c>
       <c r="O8">
-        <v>0.4339618981570587</v>
+        <v>0.006936904459232851</v>
       </c>
       <c r="P8">
-        <v>0.4400001517250682</v>
+        <v>0.004756306409862805</v>
       </c>
       <c r="Q8">
-        <v>1268.834447348144</v>
+        <v>13.95348786358333</v>
       </c>
       <c r="R8">
-        <v>11419.5100261333</v>
+        <v>83.72092718149999</v>
       </c>
       <c r="S8">
-        <v>0.1054522259942276</v>
+        <v>0.001623412858807124</v>
       </c>
       <c r="T8">
-        <v>0.1187675939994584</v>
+        <v>0.001251529130730765</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,46 +977,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>75.43649166666665</v>
+        <v>75.43649166666667</v>
       </c>
       <c r="H9">
         <v>226.309475</v>
       </c>
       <c r="I9">
-        <v>0.2429988126654902</v>
+        <v>0.2340255467474979</v>
       </c>
       <c r="J9">
-        <v>0.2699262569201787</v>
+        <v>0.2631304678217451</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.5957015</v>
+        <v>1.301920666666667</v>
       </c>
       <c r="N9">
-        <v>3.191403</v>
+        <v>3.905762</v>
       </c>
       <c r="O9">
-        <v>0.04116989649437126</v>
+        <v>0.04882575162549281</v>
       </c>
       <c r="P9">
-        <v>0.02782849643552907</v>
+        <v>0.05021625354381405</v>
       </c>
       <c r="Q9">
-        <v>120.3741229072375</v>
+        <v>98.21232752166109</v>
       </c>
       <c r="R9">
-        <v>722.2447374434248</v>
+        <v>883.9109476949499</v>
       </c>
       <c r="S9">
-        <v>0.01000423596569334</v>
+        <v>0.01142647321951349</v>
       </c>
       <c r="T9">
-        <v>0.007511641878558897</v>
+        <v>0.01321342628723916</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,46 +1039,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>75.43649166666665</v>
+        <v>75.43649166666667</v>
       </c>
       <c r="H10">
         <v>226.309475</v>
       </c>
       <c r="I10">
-        <v>0.2429988126654902</v>
+        <v>0.2340255467474979</v>
       </c>
       <c r="J10">
-        <v>0.2699262569201787</v>
+        <v>0.2631304678217451</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.1332063333333333</v>
+        <v>10.861814</v>
       </c>
       <c r="N10">
-        <v>0.399619</v>
+        <v>32.585442</v>
       </c>
       <c r="O10">
-        <v>0.00343678999846027</v>
+        <v>0.4073491159212727</v>
       </c>
       <c r="P10">
-        <v>0.003484610347571176</v>
+        <v>0.4189499558112469</v>
       </c>
       <c r="Q10">
-        <v>10.04861845444722</v>
+        <v>819.3771412958835</v>
       </c>
       <c r="R10">
-        <v>90.43756609002499</v>
+        <v>7374.39427166295</v>
       </c>
       <c r="S10">
-        <v>0.0008351358890064774</v>
+        <v>0.09533009957058573</v>
       </c>
       <c r="T10">
-        <v>0.0009405878279452103</v>
+        <v>0.1102384978665128</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,51 +1101,51 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>75.43649166666665</v>
+        <v>75.43649166666667</v>
       </c>
       <c r="H11">
         <v>226.309475</v>
       </c>
       <c r="I11">
-        <v>0.2429988126654902</v>
+        <v>0.2340255467474979</v>
       </c>
       <c r="J11">
-        <v>0.2699262569201787</v>
+        <v>0.2631304678217451</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>18.90820766666667</v>
+        <v>2.030083</v>
       </c>
       <c r="N11">
-        <v>56.724623</v>
+        <v>4.060166000000001</v>
       </c>
       <c r="O11">
-        <v>0.4878412112357755</v>
+        <v>0.07613392342170518</v>
       </c>
       <c r="P11">
-        <v>0.4946291549397649</v>
+        <v>0.05220142069229343</v>
       </c>
       <c r="Q11">
-        <v>1426.368850078102</v>
+        <v>153.1423393121417</v>
       </c>
       <c r="R11">
-        <v>12837.31965070292</v>
+        <v>918.8540358728501</v>
       </c>
       <c r="S11">
-        <v>0.118544835099588</v>
+        <v>0.01781728305479669</v>
       </c>
       <c r="T11">
-        <v>0.1335133963564819</v>
+        <v>0.0137357842477229</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>56.65803433333333</v>
+        <v>75.43649166666667</v>
       </c>
       <c r="H12">
-        <v>169.974103</v>
+        <v>226.309475</v>
       </c>
       <c r="I12">
-        <v>0.182508952454959</v>
+        <v>0.2340255467474979</v>
       </c>
       <c r="J12">
-        <v>0.2027333296414342</v>
+        <v>0.2631304678217451</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,33 +1181,33 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.301920666666667</v>
+        <v>3.524424</v>
       </c>
       <c r="N12">
-        <v>3.905762</v>
+        <v>10.573272</v>
       </c>
       <c r="O12">
-        <v>0.03359020411433435</v>
+        <v>0.1321759883323095</v>
       </c>
       <c r="P12">
-        <v>0.03405758655206657</v>
+        <v>0.1359402102687542</v>
       </c>
       <c r="Q12">
-        <v>73.76426583127621</v>
+        <v>265.8701817058</v>
       </c>
       <c r="R12">
-        <v>663.8783924814859</v>
+        <v>2392.8316353522</v>
       </c>
       <c r="S12">
-        <v>0.006130512965655415</v>
+        <v>0.03093255793635962</v>
       </c>
       <c r="T12">
-        <v>0.006904607921251789</v>
+        <v>0.03577001112380369</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>56.65803433333333</v>
+        <v>75.43649166666667</v>
       </c>
       <c r="H13">
-        <v>169.974103</v>
+        <v>226.309475</v>
       </c>
       <c r="I13">
-        <v>0.182508952454959</v>
+        <v>0.2340255467474979</v>
       </c>
       <c r="J13">
-        <v>0.2027333296414342</v>
+        <v>0.2631304678217451</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>16.81990266666667</v>
+        <v>8.761419666666667</v>
       </c>
       <c r="N13">
-        <v>50.459708</v>
+        <v>26.284259</v>
       </c>
       <c r="O13">
-        <v>0.4339618981570587</v>
+        <v>0.328578316239987</v>
       </c>
       <c r="P13">
-        <v>0.4400001517250682</v>
+        <v>0.3379358532740286</v>
       </c>
       <c r="Q13">
-        <v>952.9826227713248</v>
+        <v>660.9307616726695</v>
       </c>
       <c r="R13">
-        <v>8576.843604941923</v>
+        <v>5948.376855054024</v>
       </c>
       <c r="S13">
-        <v>0.07920193143801038</v>
+        <v>0.07689572010743521</v>
       </c>
       <c r="T13">
-        <v>0.08920269580195933</v>
+        <v>0.08892121916573575</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>56.65803433333333</v>
+        <v>49.93111433333333</v>
       </c>
       <c r="H14">
-        <v>169.974103</v>
+        <v>149.793343</v>
       </c>
       <c r="I14">
-        <v>0.182508952454959</v>
+        <v>0.1549005802550268</v>
       </c>
       <c r="J14">
-        <v>0.2027333296414342</v>
+        <v>0.1741650119606045</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M14">
-        <v>1.5957015</v>
+        <v>0.18497</v>
       </c>
       <c r="N14">
-        <v>3.191403</v>
+        <v>0.36994</v>
       </c>
       <c r="O14">
-        <v>0.04116989649437126</v>
+        <v>0.006936904459232851</v>
       </c>
       <c r="P14">
-        <v>0.02782849643552907</v>
+        <v>0.004756306409862805</v>
       </c>
       <c r="Q14">
-        <v>90.40931037275148</v>
+        <v>9.235758218236667</v>
       </c>
       <c r="R14">
-        <v>542.4558622365089</v>
+        <v>55.41454930942</v>
       </c>
       <c r="S14">
-        <v>0.007513874681866786</v>
+        <v>0.001074530525908852</v>
       </c>
       <c r="T14">
-        <v>0.005641763741289593</v>
+        <v>0.0008283821627620555</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,46 +1349,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>56.65803433333333</v>
+        <v>49.93111433333333</v>
       </c>
       <c r="H15">
-        <v>169.974103</v>
+        <v>149.793343</v>
       </c>
       <c r="I15">
-        <v>0.182508952454959</v>
+        <v>0.1549005802550268</v>
       </c>
       <c r="J15">
-        <v>0.2027333296414342</v>
+        <v>0.1741650119606045</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.1332063333333333</v>
+        <v>1.301920666666667</v>
       </c>
       <c r="N15">
-        <v>0.399619</v>
+        <v>3.905762</v>
       </c>
       <c r="O15">
-        <v>0.00343678999846027</v>
+        <v>0.04882575162549281</v>
       </c>
       <c r="P15">
-        <v>0.003484610347571176</v>
+        <v>0.05021625354381405</v>
       </c>
       <c r="Q15">
-        <v>7.547209007417444</v>
+        <v>65.00634966026288</v>
       </c>
       <c r="R15">
-        <v>67.924881066757</v>
+        <v>585.057146942366</v>
       </c>
       <c r="S15">
-        <v>0.0006272449424266639</v>
+        <v>0.007563137258176656</v>
       </c>
       <c r="T15">
-        <v>0.0007064466582660998</v>
+        <v>0.008745914399075124</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>56.65803433333333</v>
+        <v>49.93111433333333</v>
       </c>
       <c r="H16">
-        <v>169.974103</v>
+        <v>149.793343</v>
       </c>
       <c r="I16">
-        <v>0.182508952454959</v>
+        <v>0.1549005802550268</v>
       </c>
       <c r="J16">
-        <v>0.2027333296414342</v>
+        <v>0.1741650119606045</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,95 +1429,95 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>18.90820766666667</v>
+        <v>10.861814</v>
       </c>
       <c r="N16">
-        <v>56.724623</v>
+        <v>32.585442</v>
       </c>
       <c r="O16">
-        <v>0.4878412112357755</v>
+        <v>0.4073491159212727</v>
       </c>
       <c r="P16">
-        <v>0.4946291549397649</v>
+        <v>0.4189499558112469</v>
       </c>
       <c r="Q16">
-        <v>1071.301879159796</v>
+        <v>542.3424767014008</v>
       </c>
       <c r="R16">
-        <v>9641.716912438169</v>
+        <v>4881.082290312605</v>
       </c>
       <c r="S16">
-        <v>0.08903538842699975</v>
+        <v>0.06309861442257732</v>
       </c>
       <c r="T16">
-        <v>0.1002778155186674</v>
+        <v>0.07296642406476056</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>21</v>
-      </c>
       <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>49.93111433333333</v>
+      </c>
+      <c r="H17">
+        <v>149.793343</v>
+      </c>
+      <c r="I17">
+        <v>0.1549005802550268</v>
+      </c>
+      <c r="J17">
+        <v>0.1741650119606045</v>
+      </c>
+      <c r="K17">
         <v>2</v>
       </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>46.729401</v>
-      </c>
-      <c r="H17">
-        <v>93.45880199999999</v>
-      </c>
-      <c r="I17">
-        <v>0.1505264721183623</v>
-      </c>
-      <c r="J17">
-        <v>0.1114711816644182</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.301920666666667</v>
+        <v>2.030083</v>
       </c>
       <c r="N17">
-        <v>3.905762</v>
+        <v>4.060166000000001</v>
       </c>
       <c r="O17">
-        <v>0.03359020411433435</v>
+        <v>0.07613392342170518</v>
       </c>
       <c r="P17">
-        <v>0.03405758655206657</v>
+        <v>0.05220142069229343</v>
       </c>
       <c r="Q17">
-        <v>60.83797290285398</v>
+        <v>101.3643063791563</v>
       </c>
       <c r="R17">
-        <v>365.0278374171239</v>
+        <v>608.1858382749381</v>
       </c>
       <c r="S17">
-        <v>0.005056214923066447</v>
+        <v>0.01179318891511391</v>
       </c>
       <c r="T17">
-        <v>0.003796439417597059</v>
+        <v>0.009091661059233834</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,25 +1526,25 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>46.729401</v>
+        <v>49.93111433333333</v>
       </c>
       <c r="H18">
-        <v>93.45880199999999</v>
+        <v>149.793343</v>
       </c>
       <c r="I18">
-        <v>0.1505264721183623</v>
+        <v>0.1549005802550268</v>
       </c>
       <c r="J18">
-        <v>0.1114711816644182</v>
+        <v>0.1741650119606045</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,33 +1553,33 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>16.81990266666667</v>
+        <v>3.524424</v>
       </c>
       <c r="N18">
-        <v>50.459708</v>
+        <v>10.573272</v>
       </c>
       <c r="O18">
-        <v>0.4339618981570587</v>
+        <v>0.1321759883323095</v>
       </c>
       <c r="P18">
-        <v>0.4400001517250682</v>
+        <v>0.1359402102687542</v>
       </c>
       <c r="Q18">
-        <v>785.983976491636</v>
+        <v>175.978417703144</v>
       </c>
       <c r="R18">
-        <v>4715.903858949816</v>
+        <v>1583.805759328296</v>
       </c>
       <c r="S18">
-        <v>0.06532275356337007</v>
+        <v>0.02047413728845639</v>
       </c>
       <c r="T18">
-        <v>0.04904733684531666</v>
+        <v>0.02367602834738467</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,55 +1588,55 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>46.729401</v>
+        <v>49.93111433333333</v>
       </c>
       <c r="H19">
-        <v>93.45880199999999</v>
+        <v>149.793343</v>
       </c>
       <c r="I19">
-        <v>0.1505264721183623</v>
+        <v>0.1549005802550268</v>
       </c>
       <c r="J19">
-        <v>0.1114711816644182</v>
+        <v>0.1741650119606045</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.5957015</v>
+        <v>8.761419666666667</v>
       </c>
       <c r="N19">
-        <v>3.191403</v>
+        <v>26.284259</v>
       </c>
       <c r="O19">
-        <v>0.04116989649437126</v>
+        <v>0.328578316239987</v>
       </c>
       <c r="P19">
-        <v>0.02782849643552907</v>
+        <v>0.3379358532740286</v>
       </c>
       <c r="Q19">
-        <v>74.56617526980149</v>
+        <v>437.4674470986486</v>
       </c>
       <c r="R19">
-        <v>298.264701079206</v>
+        <v>3937.207023887837</v>
       </c>
       <c r="S19">
-        <v>0.006197159276775836</v>
+        <v>0.05089697184479369</v>
       </c>
       <c r="T19">
-        <v>0.003102075381612476</v>
+        <v>0.05885660192738829</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,7 +1650,7 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>46.729401</v>
+        <v>54.1934605</v>
       </c>
       <c r="H20">
-        <v>93.45880199999999</v>
+        <v>108.386921</v>
       </c>
       <c r="I20">
-        <v>0.1505264721183623</v>
+        <v>0.1681235956689586</v>
       </c>
       <c r="J20">
-        <v>0.1114711816644182</v>
+        <v>0.1260216843704336</v>
       </c>
       <c r="K20">
         <v>1</v>
       </c>
       <c r="L20">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M20">
-        <v>0.1332063333333333</v>
+        <v>0.18497</v>
       </c>
       <c r="N20">
-        <v>0.399619</v>
+        <v>0.36994</v>
       </c>
       <c r="O20">
-        <v>0.00343678999846027</v>
+        <v>0.006936904459232851</v>
       </c>
       <c r="P20">
-        <v>0.003484610347571176</v>
+        <v>0.004756306409862805</v>
       </c>
       <c r="Q20">
-        <v>6.224652166073</v>
+        <v>10.024164388685</v>
       </c>
       <c r="R20">
-        <v>37.347912996438</v>
+        <v>40.09665755474</v>
       </c>
       <c r="S20">
-        <v>0.0005173278738798961</v>
+        <v>0.00116625732049826</v>
       </c>
       <c r="T20">
-        <v>0.000388433633083818</v>
+        <v>0.0005993977451528006</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,7 +1712,7 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>46.729401</v>
+        <v>54.1934605</v>
       </c>
       <c r="H21">
-        <v>93.45880199999999</v>
+        <v>108.386921</v>
       </c>
       <c r="I21">
-        <v>0.1505264721183623</v>
+        <v>0.1681235956689586</v>
       </c>
       <c r="J21">
-        <v>0.1114711816644182</v>
+        <v>0.1260216843704336</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,33 +1739,33 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>18.90820766666667</v>
+        <v>1.301920666666667</v>
       </c>
       <c r="N21">
-        <v>56.724623</v>
+        <v>3.905762</v>
       </c>
       <c r="O21">
-        <v>0.4878412112357755</v>
+        <v>0.04882575162549281</v>
       </c>
       <c r="P21">
-        <v>0.4946291549397649</v>
+        <v>0.05021625354381405</v>
       </c>
       <c r="Q21">
-        <v>883.5692182469409</v>
+        <v>70.55558622313366</v>
       </c>
       <c r="R21">
-        <v>5301.415309481646</v>
+        <v>423.333517338802</v>
       </c>
       <c r="S21">
-        <v>0.07343301648127004</v>
+        <v>0.008208760924517351</v>
       </c>
       <c r="T21">
-        <v>0.0551368963868082</v>
+        <v>0.006328336854364202</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,25 +1774,25 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>33.99304466666667</v>
+        <v>54.1934605</v>
       </c>
       <c r="H22">
-        <v>101.979134</v>
+        <v>108.386921</v>
       </c>
       <c r="I22">
-        <v>0.1094996507709407</v>
+        <v>0.1681235956689586</v>
       </c>
       <c r="J22">
-        <v>0.1216336431542751</v>
+        <v>0.1260216843704336</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,33 +1801,33 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.301920666666667</v>
+        <v>10.861814</v>
       </c>
       <c r="N22">
-        <v>3.905762</v>
+        <v>32.585442</v>
       </c>
       <c r="O22">
-        <v>0.03359020411433435</v>
+        <v>0.4073491159212727</v>
       </c>
       <c r="P22">
-        <v>0.03405758655206657</v>
+        <v>0.4189499558112469</v>
       </c>
       <c r="Q22">
-        <v>44.25624737445644</v>
+        <v>588.6392879673471</v>
       </c>
       <c r="R22">
-        <v>398.306226370108</v>
+        <v>3531.835727804082</v>
       </c>
       <c r="S22">
-        <v>0.003678115619844225</v>
+        <v>0.06848499806125578</v>
       </c>
       <c r="T22">
-        <v>0.004142548329369902</v>
+        <v>0.05279677909825206</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,122 +1836,122 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>33.99304466666667</v>
+        <v>54.1934605</v>
       </c>
       <c r="H23">
-        <v>101.979134</v>
+        <v>108.386921</v>
       </c>
       <c r="I23">
-        <v>0.1094996507709407</v>
+        <v>0.1681235956689586</v>
       </c>
       <c r="J23">
-        <v>0.1216336431542751</v>
+        <v>0.1260216843704336</v>
       </c>
       <c r="K23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>16.81990266666667</v>
+        <v>2.030083</v>
       </c>
       <c r="N23">
-        <v>50.459708</v>
+        <v>4.060166000000001</v>
       </c>
       <c r="O23">
-        <v>0.4339618981570587</v>
+        <v>0.07613392342170518</v>
       </c>
       <c r="P23">
-        <v>0.4400001517250682</v>
+        <v>0.05220142069229343</v>
       </c>
       <c r="Q23">
-        <v>571.7597026369858</v>
+        <v>110.0172228722215</v>
       </c>
       <c r="R23">
-        <v>5145.837323732872</v>
+        <v>440.0688914888861</v>
       </c>
       <c r="S23">
-        <v>0.04751867629609244</v>
+        <v>0.01279990895804222</v>
       </c>
       <c r="T23">
-        <v>0.05351882144275384</v>
+        <v>0.006578510962172423</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>33.99304466666667</v>
+        <v>54.1934605</v>
       </c>
       <c r="H24">
-        <v>101.979134</v>
+        <v>108.386921</v>
       </c>
       <c r="I24">
-        <v>0.1094996507709407</v>
+        <v>0.1681235956689586</v>
       </c>
       <c r="J24">
-        <v>0.1216336431542751</v>
+        <v>0.1260216843704336</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.5957015</v>
+        <v>3.524424</v>
       </c>
       <c r="N24">
-        <v>3.191403</v>
+        <v>10.573272</v>
       </c>
       <c r="O24">
-        <v>0.04116989649437126</v>
+        <v>0.1321759883323095</v>
       </c>
       <c r="P24">
-        <v>0.02782849643552907</v>
+        <v>0.1359402102687542</v>
       </c>
       <c r="Q24">
-        <v>54.242752364167</v>
+        <v>191.000732829252</v>
       </c>
       <c r="R24">
-        <v>325.456514185002</v>
+        <v>1146.004396975512</v>
       </c>
       <c r="S24">
-        <v>0.004508089288409427</v>
+        <v>0.02222190241952618</v>
       </c>
       <c r="T24">
-        <v>0.003384881404959159</v>
+        <v>0.01713141427173932</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,55 +1960,55 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>33.99304466666667</v>
+        <v>54.1934605</v>
       </c>
       <c r="H25">
-        <v>101.979134</v>
+        <v>108.386921</v>
       </c>
       <c r="I25">
-        <v>0.1094996507709407</v>
+        <v>0.1681235956689586</v>
       </c>
       <c r="J25">
-        <v>0.1216336431542751</v>
+        <v>0.1260216843704336</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0.1332063333333333</v>
+        <v>8.761419666666667</v>
       </c>
       <c r="N25">
-        <v>0.399619</v>
+        <v>26.284259</v>
       </c>
       <c r="O25">
-        <v>0.00343678999846027</v>
+        <v>0.328578316239987</v>
       </c>
       <c r="P25">
-        <v>0.003484610347571176</v>
+        <v>0.3379358532740286</v>
       </c>
       <c r="Q25">
-        <v>4.52808883888289</v>
+        <v>474.8116506294232</v>
       </c>
       <c r="R25">
-        <v>40.752799549946</v>
+        <v>2848.869903776539</v>
       </c>
       <c r="S25">
-        <v>0.0003763273046044613</v>
+        <v>0.05524176798511878</v>
       </c>
       <c r="T25">
-        <v>0.0004238458515481668</v>
+        <v>0.04258724543875279</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,7 +2022,7 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E26">
         <v>3</v>
@@ -2031,51 +2031,51 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>33.99304466666667</v>
+        <v>35.720406</v>
       </c>
       <c r="H26">
-        <v>101.979134</v>
+        <v>107.161218</v>
       </c>
       <c r="I26">
-        <v>0.1094996507709407</v>
+        <v>0.1108149034969827</v>
       </c>
       <c r="J26">
-        <v>0.1216336431542751</v>
+        <v>0.1245965571025606</v>
       </c>
       <c r="K26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M26">
-        <v>18.90820766666667</v>
+        <v>0.18497</v>
       </c>
       <c r="N26">
-        <v>56.724623</v>
+        <v>0.36994</v>
       </c>
       <c r="O26">
-        <v>0.4878412112357755</v>
+        <v>0.006936904459232851</v>
       </c>
       <c r="P26">
-        <v>0.4946291549397649</v>
+        <v>0.004756306409862805</v>
       </c>
       <c r="Q26">
-        <v>642.7475477796091</v>
+        <v>6.60720349782</v>
       </c>
       <c r="R26">
-        <v>5784.727930016482</v>
+        <v>39.64322098691999</v>
       </c>
       <c r="S26">
-        <v>0.05341844226199011</v>
+        <v>0.0007687123982176771</v>
       </c>
       <c r="T26">
-        <v>0.060163546125644</v>
+        <v>0.000592619403193746</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>51.445151</v>
+        <v>35.720406</v>
       </c>
       <c r="H27">
-        <v>154.335453</v>
+        <v>107.161218</v>
       </c>
       <c r="I27">
-        <v>0.1657170201609569</v>
+        <v>0.1108149034969827</v>
       </c>
       <c r="J27">
-        <v>0.1840806317913564</v>
+        <v>0.1245965571025606</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,27 +2117,27 @@
         <v>3.905762</v>
       </c>
       <c r="O27">
-        <v>0.03359020411433435</v>
+        <v>0.04882575162549281</v>
       </c>
       <c r="P27">
-        <v>0.03405758655206657</v>
+        <v>0.05021625354381405</v>
       </c>
       <c r="Q27">
-        <v>66.97750528668733</v>
+        <v>46.50513479312399</v>
       </c>
       <c r="R27">
-        <v>602.797547580186</v>
+        <v>418.5462131381159</v>
       </c>
       <c r="S27">
-        <v>0.005566468532425803</v>
+        <v>0.00541062095454663</v>
       </c>
       <c r="T27">
-        <v>0.006269342049793217</v>
+        <v>0.006256772302148489</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>51.445151</v>
+        <v>35.720406</v>
       </c>
       <c r="H28">
-        <v>154.335453</v>
+        <v>107.161218</v>
       </c>
       <c r="I28">
-        <v>0.1657170201609569</v>
+        <v>0.1108149034969827</v>
       </c>
       <c r="J28">
-        <v>0.1840806317913564</v>
+        <v>0.1245965571025606</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,33 +2173,33 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>16.81990266666667</v>
+        <v>10.861814</v>
       </c>
       <c r="N28">
-        <v>50.459708</v>
+        <v>32.585442</v>
       </c>
       <c r="O28">
-        <v>0.4339618981570587</v>
+        <v>0.4073491159212727</v>
       </c>
       <c r="P28">
-        <v>0.4400001517250682</v>
+        <v>0.4189499558112469</v>
       </c>
       <c r="Q28">
-        <v>865.3024324919694</v>
+        <v>387.988405976484</v>
       </c>
       <c r="R28">
-        <v>7787.721892427724</v>
+        <v>3491.895653788356</v>
       </c>
       <c r="S28">
-        <v>0.07191487262598042</v>
+        <v>0.04514035297039704</v>
       </c>
       <c r="T28">
-        <v>0.08099550591784323</v>
+        <v>0.05219972209235128</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>51.445151</v>
+        <v>35.720406</v>
       </c>
       <c r="H29">
-        <v>154.335453</v>
+        <v>107.161218</v>
       </c>
       <c r="I29">
-        <v>0.1657170201609569</v>
+        <v>0.1108149034969827</v>
       </c>
       <c r="J29">
-        <v>0.1840806317913564</v>
+        <v>0.1245965571025606</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,33 +2235,33 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.5957015</v>
+        <v>2.030083</v>
       </c>
       <c r="N29">
-        <v>3.191403</v>
+        <v>4.060166000000001</v>
       </c>
       <c r="O29">
-        <v>0.04116989649437126</v>
+        <v>0.07613392342170518</v>
       </c>
       <c r="P29">
-        <v>0.02782849643552907</v>
+        <v>0.05220142069229343</v>
       </c>
       <c r="Q29">
-        <v>82.0911046184265</v>
+        <v>72.51538897369801</v>
       </c>
       <c r="R29">
-        <v>492.546627710559</v>
+        <v>435.0923338421881</v>
       </c>
       <c r="S29">
-        <v>0.006822552567382231</v>
+        <v>0.008436773376822927</v>
       </c>
       <c r="T29">
-        <v>0.005122687205655701</v>
+        <v>0.006504117294122127</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2279,51 +2279,51 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>51.445151</v>
+        <v>35.720406</v>
       </c>
       <c r="H30">
-        <v>154.335453</v>
+        <v>107.161218</v>
       </c>
       <c r="I30">
-        <v>0.1657170201609569</v>
+        <v>0.1108149034969827</v>
       </c>
       <c r="J30">
-        <v>0.1840806317913564</v>
+        <v>0.1245965571025606</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M30">
-        <v>0.1332063333333333</v>
+        <v>3.524424</v>
       </c>
       <c r="N30">
-        <v>0.399619</v>
+        <v>10.573272</v>
       </c>
       <c r="O30">
-        <v>0.00343678999846027</v>
+        <v>0.1321759883323095</v>
       </c>
       <c r="P30">
-        <v>0.003484610347571176</v>
+        <v>0.1359402102687542</v>
       </c>
       <c r="Q30">
-        <v>6.852819932489668</v>
+        <v>125.893856196144</v>
       </c>
       <c r="R30">
-        <v>61.675379392407</v>
+        <v>1133.044705765296</v>
       </c>
       <c r="S30">
-        <v>0.0005695345974638156</v>
+        <v>0.01464706939166318</v>
       </c>
       <c r="T30">
-        <v>0.0006414492743276</v>
+        <v>0.01693768217128493</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>51.445151</v>
+        <v>35.720406</v>
       </c>
       <c r="H31">
-        <v>154.335453</v>
+        <v>107.161218</v>
       </c>
       <c r="I31">
-        <v>0.1657170201609569</v>
+        <v>0.1108149034969827</v>
       </c>
       <c r="J31">
-        <v>0.1840806317913564</v>
+        <v>0.1245965571025606</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,400 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>18.90820766666667</v>
+        <v>8.761419666666667</v>
       </c>
       <c r="N31">
-        <v>56.724623</v>
+        <v>26.284259</v>
       </c>
       <c r="O31">
-        <v>0.4878412112357755</v>
+        <v>0.328578316239987</v>
       </c>
       <c r="P31">
-        <v>0.4946291549397649</v>
+        <v>0.3379358532740286</v>
       </c>
       <c r="Q31">
-        <v>972.7355985510244</v>
+        <v>312.961467629718</v>
       </c>
       <c r="R31">
-        <v>8754.620386959219</v>
+        <v>2816.653208667462</v>
       </c>
       <c r="S31">
-        <v>0.08084359183770463</v>
+        <v>0.03641137440533521</v>
       </c>
       <c r="T31">
-        <v>0.09105164734373664</v>
+        <v>0.04210564383946005</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>54.291675</v>
+      </c>
+      <c r="H32">
+        <v>162.875025</v>
+      </c>
+      <c r="I32">
+        <v>0.1684282851044455</v>
+      </c>
+      <c r="J32">
+        <v>0.1893751091275716</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>0.5</v>
+      </c>
+      <c r="M32">
+        <v>0.18497</v>
+      </c>
+      <c r="N32">
+        <v>0.36994</v>
+      </c>
+      <c r="O32">
+        <v>0.006936904459232851</v>
+      </c>
+      <c r="P32">
+        <v>0.004756306409862805</v>
+      </c>
+      <c r="Q32">
+        <v>10.04233112475</v>
+      </c>
+      <c r="R32">
+        <v>60.2539867485</v>
+      </c>
+      <c r="S32">
+        <v>0.00116837092200197</v>
+      </c>
+      <c r="T32">
+        <v>0.0009007260454119369</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>54.291675</v>
+      </c>
+      <c r="H33">
+        <v>162.875025</v>
+      </c>
+      <c r="I33">
+        <v>0.1684282851044455</v>
+      </c>
+      <c r="J33">
+        <v>0.1893751091275716</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>1.301920666666667</v>
+      </c>
+      <c r="N33">
+        <v>3.905762</v>
+      </c>
+      <c r="O33">
+        <v>0.04882575162549281</v>
+      </c>
+      <c r="P33">
+        <v>0.05021625354381405</v>
+      </c>
+      <c r="Q33">
+        <v>70.68345371044998</v>
+      </c>
+      <c r="R33">
+        <v>636.1510833940499</v>
+      </c>
+      <c r="S33">
+        <v>0.008223637615217346</v>
+      </c>
+      <c r="T33">
+        <v>0.00950970849483759</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>54.291675</v>
+      </c>
+      <c r="H34">
+        <v>162.875025</v>
+      </c>
+      <c r="I34">
+        <v>0.1684282851044455</v>
+      </c>
+      <c r="J34">
+        <v>0.1893751091275716</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>10.861814</v>
+      </c>
+      <c r="N34">
+        <v>32.585442</v>
+      </c>
+      <c r="O34">
+        <v>0.4073491159212727</v>
+      </c>
+      <c r="P34">
+        <v>0.4189499558112469</v>
+      </c>
+      <c r="Q34">
+        <v>589.7060755984501</v>
+      </c>
+      <c r="R34">
+        <v>5307.35468038605</v>
+      </c>
+      <c r="S34">
+        <v>0.06860911303343194</v>
+      </c>
+      <c r="T34">
+        <v>0.07933869360074618</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>54.291675</v>
+      </c>
+      <c r="H35">
+        <v>162.875025</v>
+      </c>
+      <c r="I35">
+        <v>0.1684282851044455</v>
+      </c>
+      <c r="J35">
+        <v>0.1893751091275716</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>2.030083</v>
+      </c>
+      <c r="N35">
+        <v>4.060166000000001</v>
+      </c>
+      <c r="O35">
+        <v>0.07613392342170518</v>
+      </c>
+      <c r="P35">
+        <v>0.05220142069229343</v>
+      </c>
+      <c r="Q35">
+        <v>110.216606459025</v>
+      </c>
+      <c r="R35">
+        <v>661.2996387541501</v>
+      </c>
+      <c r="S35">
+        <v>0.01282310616019098</v>
+      </c>
+      <c r="T35">
+        <v>0.009885649740217342</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>54.291675</v>
+      </c>
+      <c r="H36">
+        <v>162.875025</v>
+      </c>
+      <c r="I36">
+        <v>0.1684282851044455</v>
+      </c>
+      <c r="J36">
+        <v>0.1893751091275716</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>3.524424</v>
+      </c>
+      <c r="N36">
+        <v>10.573272</v>
+      </c>
+      <c r="O36">
+        <v>0.1321759883323095</v>
+      </c>
+      <c r="P36">
+        <v>0.1359402102687542</v>
+      </c>
+      <c r="Q36">
+        <v>191.3468823702</v>
+      </c>
+      <c r="R36">
+        <v>1722.1219413318</v>
+      </c>
+      <c r="S36">
+        <v>0.02226217504679608</v>
+      </c>
+      <c r="T36">
+        <v>0.02574369215447035</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>54.291675</v>
+      </c>
+      <c r="H37">
+        <v>162.875025</v>
+      </c>
+      <c r="I37">
+        <v>0.1684282851044455</v>
+      </c>
+      <c r="J37">
+        <v>0.1893751091275716</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>8.761419666666667</v>
+      </c>
+      <c r="N37">
+        <v>26.284259</v>
+      </c>
+      <c r="O37">
+        <v>0.328578316239987</v>
+      </c>
+      <c r="P37">
+        <v>0.3379358532740286</v>
+      </c>
+      <c r="Q37">
+        <v>475.672149081275</v>
+      </c>
+      <c r="R37">
+        <v>4281.049341731475</v>
+      </c>
+      <c r="S37">
+        <v>0.05534188232680719</v>
+      </c>
+      <c r="T37">
+        <v>0.06399663909188819</v>
       </c>
     </row>
   </sheetData>
